--- a/team_specific_matrix/Thomas (GA)_B.xlsx
+++ b/team_specific_matrix/Thomas (GA)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.5217391304347826</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3777777777777778</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.2258064516129032</v>
       </c>
     </row>
   </sheetData>
